--- a/TESTES IC - Testes setembro 2017.xlsx
+++ b/TESTES IC - Testes setembro 2017.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Visão Aluno" sheetId="1" state="visible" r:id="rId2"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="165">
   <si>
     <t xml:space="preserve">Testes do Projeto Piratas </t>
   </si>
@@ -528,7 +528,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="9">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -586,6 +586,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="4">
@@ -691,7 +697,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="62">
+  <cellXfs count="64">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -938,6 +944,14 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -1019,15 +1033,15 @@
   </sheetPr>
   <dimension ref="A1:C72"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A40" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B64" activeCellId="0" sqref="B64"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A43" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C70" activeCellId="0" sqref="C70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="72.7327935222672"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="27.8502024291498"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="91.6923076923077"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="73.3765182186235"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="28.0647773279352"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="92.4453441295547"/>
     <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
@@ -1612,9 +1626,11 @@
         <v>86</v>
       </c>
     </row>
-    <row r="70" customFormat="false" ht="45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="70" customFormat="false" ht="28.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="38"/>
-      <c r="B70" s="39"/>
+      <c r="B70" s="44" t="s">
+        <v>7</v>
+      </c>
       <c r="C70" s="40" t="s">
         <v>87</v>
       </c>
@@ -1668,15 +1684,15 @@
   </sheetPr>
   <dimension ref="A1:C37"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C7" activeCellId="0" sqref="C7"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C34" activeCellId="0" sqref="C34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="45.0971659919028"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="45.5263157894737"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="0" width="16.3886639676113"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="147.182186234818"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="148.574898785425"/>
     <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
@@ -2045,15 +2061,15 @@
   </sheetPr>
   <dimension ref="A1:C26"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C34" activeCellId="0" sqref="C34"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B23" activeCellId="0" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="33.4210526315789"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="33.7408906882591"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="0" width="16.3886639676113"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="158.109311740891"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="159.497975708502"/>
     <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
@@ -2218,12 +2234,12 @@
       <c r="B19" s="4"/>
       <c r="C19" s="4"/>
     </row>
-    <row r="20" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" customFormat="false" ht="28.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="59" t="s">
         <v>91</v>
       </c>
-      <c r="B20" s="6" t="s">
-        <v>5</v>
+      <c r="B20" s="12" t="s">
+        <v>7</v>
       </c>
       <c r="C20" s="7" t="s">
         <v>153</v>
@@ -2240,23 +2256,23 @@
         <v>155</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="31" t="s">
         <v>156</v>
       </c>
-      <c r="B22" s="32" t="s">
-        <v>5</v>
+      <c r="B22" s="62" t="s">
+        <v>7</v>
       </c>
       <c r="C22" s="50" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="38" t="s">
         <v>158</v>
       </c>
-      <c r="B23" s="39" t="s">
-        <v>5</v>
+      <c r="B23" s="63" t="s">
+        <v>7</v>
       </c>
       <c r="C23" s="51" t="s">
         <v>159</v>
